--- a/docs/cda-logical-model/StructureDefinition-Procedure.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,7 +91,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -383,7 +387,7 @@
     <t>Procedure.subject.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -987,42 +991,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.77734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="49.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="48.77734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1166,13 +1170,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1223,13 +1227,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1238,15 +1242,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1269,18 +1273,18 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s" s="2">
         <v>72</v>
@@ -1298,11 +1302,11 @@
         <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>72</v>
@@ -1320,7 +1324,7 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
@@ -1340,10 +1344,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1366,7 +1370,7 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1419,7 +1423,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1439,10 +1443,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1450,10 +1454,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1465,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1518,13 +1522,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1538,10 +1542,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1549,7 +1553,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1564,7 +1568,7 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1617,10 +1621,10 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
@@ -1637,10 +1641,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1648,10 +1652,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1663,11 +1667,11 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1718,13 +1722,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1738,10 +1742,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1749,10 +1753,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1764,7 +1768,7 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1817,13 +1821,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1837,10 +1841,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1848,7 +1852,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1863,11 +1867,11 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1918,10 +1922,10 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -1938,10 +1942,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1949,7 +1953,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -1964,7 +1968,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2017,10 +2021,10 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
@@ -2037,10 +2041,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2048,7 +2052,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2063,7 +2067,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2116,10 +2120,10 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -2136,10 +2140,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2147,7 +2151,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2162,7 +2166,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2191,32 +2195,32 @@
         <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2233,10 +2237,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2244,7 +2248,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2259,7 +2263,7 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2312,10 +2316,10 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2332,10 +2336,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2343,7 +2347,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2358,7 +2362,7 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2387,11 +2391,11 @@
         <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>72</v>
@@ -2409,10 +2413,10 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
@@ -2429,10 +2433,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2440,7 +2444,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2455,7 +2459,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2484,32 +2488,32 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -2526,10 +2530,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2537,10 +2541,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2552,11 +2556,11 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2607,13 +2611,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2627,10 +2631,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2638,10 +2642,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2653,11 +2657,11 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2708,13 +2712,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2728,10 +2732,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2739,10 +2743,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2754,11 +2758,11 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2809,13 +2813,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
@@ -2829,10 +2833,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2840,7 +2844,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -2855,7 +2859,7 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2908,10 +2912,10 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
@@ -2920,7 +2924,7 @@
         <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>72</v>
@@ -2928,10 +2932,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2939,7 +2943,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>73</v>
@@ -2954,13 +2958,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3011,10 +3015,10 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
@@ -3026,26 +3030,26 @@
         <v>72</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3057,16 +3061,16 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3104,42 +3108,42 @@
         <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3162,18 +3166,18 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>72</v>
@@ -3191,11 +3195,11 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
@@ -3213,7 +3217,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3233,10 +3237,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3259,18 +3263,18 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>72</v>
@@ -3288,11 +3292,11 @@
         <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>72</v>
@@ -3310,7 +3314,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -3330,10 +3334,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3341,7 +3345,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>73</v>
@@ -3356,7 +3360,7 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3385,32 +3389,32 @@
         <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
@@ -3427,10 +3431,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3453,7 +3457,7 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3506,7 +3510,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3526,10 +3530,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3537,10 +3541,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3552,7 +3556,7 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3605,13 +3609,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3625,10 +3629,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3636,10 +3640,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -3651,7 +3655,7 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3704,13 +3708,13 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
@@ -3724,10 +3728,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3735,10 +3739,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -3750,7 +3754,7 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3803,13 +3807,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
@@ -3823,10 +3827,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3834,10 +3838,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3849,7 +3853,7 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3902,19 +3906,19 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>72</v>
@@ -3922,10 +3926,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3933,7 +3937,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -3948,13 +3952,13 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4005,10 +4009,10 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
@@ -4020,26 +4024,26 @@
         <v>72</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4051,16 +4055,16 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4098,42 +4102,42 @@
         <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4156,18 +4160,18 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>72</v>
@@ -4185,11 +4189,11 @@
         <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>72</v>
@@ -4207,7 +4211,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4227,10 +4231,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4253,18 +4257,18 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>72</v>
@@ -4282,11 +4286,11 @@
         <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -4304,7 +4308,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4324,10 +4328,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4335,7 +4339,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -4350,7 +4354,7 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -4403,10 +4407,10 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4423,10 +4427,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4434,7 +4438,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -4449,7 +4453,7 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -4502,10 +4506,10 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
@@ -4522,10 +4526,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4533,10 +4537,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4548,7 +4552,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4601,13 +4605,13 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
@@ -4621,10 +4625,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4632,10 +4636,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -4647,7 +4651,7 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4700,19 +4704,19 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -4720,10 +4724,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4731,7 +4735,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -4746,13 +4750,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4803,10 +4807,10 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -4818,26 +4822,26 @@
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -4849,16 +4853,16 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -4896,42 +4900,42 @@
         <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4954,7 +4958,7 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -5007,7 +5011,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5027,10 +5031,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5038,7 +5042,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -5053,7 +5057,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -5106,10 +5110,10 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
@@ -5126,10 +5130,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5152,14 +5156,14 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
@@ -5205,7 +5209,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -5225,10 +5229,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5236,7 +5240,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5251,7 +5255,7 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5304,10 +5308,10 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
@@ -5324,10 +5328,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5335,7 +5339,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -5350,7 +5354,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5403,10 +5407,10 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -5423,10 +5427,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5434,7 +5438,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -5449,7 +5453,7 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5502,10 +5506,10 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
@@ -5522,10 +5526,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5533,7 +5537,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -5548,7 +5552,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5601,10 +5605,10 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -5621,10 +5625,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5632,7 +5636,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -5647,7 +5651,7 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5700,10 +5704,10 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
@@ -5720,10 +5724,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5731,7 +5735,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
@@ -5746,7 +5750,7 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5799,10 +5803,10 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>73</v>
@@ -5819,10 +5823,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5830,7 +5834,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -5845,7 +5849,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5898,10 +5902,10 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -5918,10 +5922,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -5929,7 +5933,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -5944,7 +5948,7 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -5997,10 +6001,10 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
@@ -6017,10 +6021,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6028,7 +6032,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6043,7 +6047,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6096,10 +6100,10 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
@@ -6116,10 +6120,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6127,7 +6131,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -6142,7 +6146,7 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6195,10 +6199,10 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
@@ -6215,10 +6219,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6226,7 +6230,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -6241,7 +6245,7 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -6294,10 +6298,10 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
@@ -6314,10 +6318,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6325,7 +6329,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -6340,7 +6344,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6393,10 +6397,10 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
@@ -6413,10 +6417,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6424,10 +6428,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -6439,7 +6443,7 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6492,19 +6496,19 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>72</v>
@@ -6512,10 +6516,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6523,7 +6527,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -6538,13 +6542,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6595,10 +6599,10 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
@@ -6610,26 +6614,26 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>72</v>
@@ -6641,16 +6645,16 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -6688,42 +6692,42 @@
         <v>72</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -6746,7 +6750,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6799,7 +6803,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -6819,10 +6823,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -6830,7 +6834,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
@@ -6845,7 +6849,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -6898,10 +6902,10 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
@@ -6918,10 +6922,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -6929,7 +6933,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>73</v>
@@ -6944,7 +6948,7 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -6997,10 +7001,10 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>73</v>
@@ -7017,10 +7021,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7028,7 +7032,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -7043,7 +7047,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -7096,10 +7100,10 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
@@ -7116,10 +7120,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7127,7 +7131,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -7142,7 +7146,7 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -7195,10 +7199,10 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -7215,10 +7219,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7226,7 +7230,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>73</v>
@@ -7241,7 +7245,7 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -7294,10 +7298,10 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>73</v>
@@ -7314,10 +7318,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7325,10 +7329,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>72</v>
@@ -7340,7 +7344,7 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -7393,13 +7397,13 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>72</v>

--- a/docs/cda-logical-model/StructureDefinition-Procedure.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
